--- a/team_specific_matrix/Longwood_B.xlsx
+++ b/team_specific_matrix/Longwood_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1929133858267716</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C2">
-        <v>0.5275590551181102</v>
+        <v>0.5236486486486487</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01968503937007874</v>
+        <v>0.02364864864864865</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1377952755905512</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1220472440944882</v>
+        <v>0.1148648648648649</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.02797202797202797</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02097902097902098</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.006993006993006993</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="P3">
-        <v>0.6643356643356644</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2727272727272727</v>
+        <v>0.274390243902439</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5813953488372093</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3720930232558139</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0867579908675799</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0091324200913242</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="E6">
-        <v>0.0045662100456621</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="F6">
-        <v>0.0776255707762557</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2191780821917808</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0273972602739726</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1643835616438356</v>
+        <v>0.1690647482014389</v>
       </c>
       <c r="R6">
-        <v>0.0639269406392694</v>
+        <v>0.0683453237410072</v>
       </c>
       <c r="S6">
-        <v>0.3470319634703196</v>
+        <v>0.3633093525179856</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1204188481675393</v>
+        <v>0.1181434599156118</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01570680628272251</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E7">
-        <v>0.005235602094240838</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="F7">
-        <v>0.05235602094240838</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09424083769633508</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02094240837696335</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1570680628272251</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="R7">
-        <v>0.1256544502617801</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="S7">
-        <v>0.4083769633507853</v>
+        <v>0.4008438818565401</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08644859813084112</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02102803738317757</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08411214953271028</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1051401869158878</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03037383177570093</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1518691588785047</v>
+        <v>0.1653846153846154</v>
       </c>
       <c r="R8">
-        <v>0.07710280373831775</v>
+        <v>0.075</v>
       </c>
       <c r="S8">
-        <v>0.4439252336448598</v>
+        <v>0.4480769230769231</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09016393442622951</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01639344262295082</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09836065573770492</v>
+        <v>0.125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08196721311475409</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02459016393442623</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1885245901639344</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="R9">
-        <v>0.05737704918032787</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="S9">
-        <v>0.4426229508196721</v>
+        <v>0.4342105263157895</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1124620060790274</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03242147922998987</v>
+        <v>0.03103448275862069</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08611955420466058</v>
+        <v>0.08879310344827586</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09523809523809523</v>
+        <v>0.0939655172413793</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0243161094224924</v>
+        <v>0.02327586206896552</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1925025329280649</v>
+        <v>0.1913793103448276</v>
       </c>
       <c r="R10">
-        <v>0.07193515704154002</v>
+        <v>0.075</v>
       </c>
       <c r="S10">
-        <v>0.3850050658561297</v>
+        <v>0.3862068965517241</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1622418879056047</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1179941002949852</v>
+        <v>0.1163366336633663</v>
       </c>
       <c r="K11">
-        <v>0.2389380530973451</v>
+        <v>0.2202970297029703</v>
       </c>
       <c r="L11">
-        <v>0.4542772861356932</v>
+        <v>0.4826732673267327</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02654867256637168</v>
+        <v>0.02227722772277228</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006369426751592357</v>
+        <v>0.005</v>
       </c>
       <c r="G12">
-        <v>0.7261146496815286</v>
+        <v>0.735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1847133757961783</v>
+        <v>0.18</v>
       </c>
       <c r="K12">
-        <v>0.006369426751592357</v>
+        <v>0.01</v>
       </c>
       <c r="L12">
-        <v>0.006369426751592357</v>
+        <v>0.005</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07006369426751592</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6511627906976745</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2790697674418605</v>
+        <v>0.26</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06976744186046512</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01492537313432836</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1144278606965174</v>
+        <v>0.1188524590163934</v>
       </c>
       <c r="I15">
-        <v>0.06965174129353234</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="J15">
-        <v>0.3134328358208955</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="K15">
-        <v>0.03980099502487562</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01492537313432836</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0845771144278607</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3482587064676617</v>
+        <v>0.3319672131147541</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02666666666666667</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.18</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="J16">
-        <v>0.3733333333333334</v>
+        <v>0.3539325842696629</v>
       </c>
       <c r="K16">
-        <v>0.1533333333333333</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01333333333333333</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04666666666666667</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14</v>
+        <v>0.1460674157303371</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02346041055718475</v>
+        <v>0.02644230769230769</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1994134897360704</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I17">
-        <v>0.07331378299120235</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J17">
-        <v>0.3607038123167156</v>
+        <v>0.3629807692307692</v>
       </c>
       <c r="K17">
-        <v>0.1231671554252199</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02639296187683285</v>
+        <v>0.02163461538461538</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1290322580645161</v>
+        <v>0.1370192307692308</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02649006622516556</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2251655629139073</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="I18">
-        <v>0.05960264900662252</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="J18">
-        <v>0.3642384105960265</v>
+        <v>0.3837837837837838</v>
       </c>
       <c r="K18">
-        <v>0.119205298013245</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01324503311258278</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04635761589403974</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1456953642384106</v>
+        <v>0.1513513513513514</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01844090528080469</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2380553227158424</v>
+        <v>0.2438186813186813</v>
       </c>
       <c r="I19">
-        <v>0.05616093880972339</v>
+        <v>0.0570054945054945</v>
       </c>
       <c r="J19">
-        <v>0.3310980720871752</v>
+        <v>0.3138736263736264</v>
       </c>
       <c r="K19">
-        <v>0.1341156747694887</v>
+        <v>0.1325549450549451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02514668901927913</v>
+        <v>0.02541208791208791</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06119027661357921</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1357921207041073</v>
+        <v>0.1476648351648352</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Longwood_B.xlsx
+++ b/team_specific_matrix/Longwood_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1891891891891892</v>
+        <v>0.182089552238806</v>
       </c>
       <c r="C2">
-        <v>0.5236486486486487</v>
+        <v>0.5402985074626866</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02364864864864865</v>
+        <v>0.0208955223880597</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1486486486486487</v>
+        <v>0.1373134328358209</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1148648648648649</v>
+        <v>0.1194029850746269</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006097560975609756</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="C3">
-        <v>0.02439024390243903</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01829268292682927</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.006097560975609756</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="P3">
-        <v>0.6707317073170732</v>
+        <v>0.6649484536082474</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.274390243902439</v>
+        <v>0.2731958762886598</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.375</v>
+        <v>0.3725490196078431</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07913669064748201</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007194244604316547</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="E6">
-        <v>0.003597122302158274</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="F6">
-        <v>0.07913669064748201</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2086330935251799</v>
+        <v>0.2269736842105263</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02158273381294964</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1690647482014389</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="R6">
-        <v>0.0683453237410072</v>
+        <v>0.0756578947368421</v>
       </c>
       <c r="S6">
-        <v>0.3633093525179856</v>
+        <v>0.3519736842105263</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1181434599156118</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01265822784810127</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="E7">
-        <v>0.004219409282700422</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="F7">
-        <v>0.06329113924050633</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09282700421940929</v>
+        <v>0.09842519685039371</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02531645569620253</v>
+        <v>0.03543307086614173</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1687763713080169</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="R7">
-        <v>0.1139240506329114</v>
+        <v>0.1141732283464567</v>
       </c>
       <c r="S7">
-        <v>0.4008438818565401</v>
+        <v>0.3976377952755906</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07692307692307693</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.01890034364261168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08461538461538462</v>
+        <v>0.08075601374570447</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03076923076923077</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1653846153846154</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="R8">
-        <v>0.075</v>
+        <v>0.08419243986254296</v>
       </c>
       <c r="S8">
-        <v>0.4480769230769231</v>
+        <v>0.4484536082474227</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09210526315789473</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0131578947368421</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.1117647058823529</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06578947368421052</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01973684210526316</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1776315789473684</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="R9">
-        <v>0.07236842105263158</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="S9">
-        <v>0.4342105263157895</v>
+        <v>0.4235294117647059</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1103448275862069</v>
+        <v>0.11796875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03103448275862069</v>
+        <v>0.0296875</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08879310344827586</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0939655172413793</v>
+        <v>0.09218750000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02327586206896552</v>
+        <v>0.0265625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1913793103448276</v>
+        <v>0.18515625</v>
       </c>
       <c r="R10">
-        <v>0.075</v>
+        <v>0.08203125</v>
       </c>
       <c r="S10">
-        <v>0.3862068965517241</v>
+        <v>0.37890625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1584158415841584</v>
+        <v>0.1554524361948956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1163366336633663</v>
+        <v>0.1183294663573086</v>
       </c>
       <c r="K11">
-        <v>0.2202970297029703</v>
+        <v>0.2180974477958237</v>
       </c>
       <c r="L11">
-        <v>0.4826732673267327</v>
+        <v>0.4849187935034803</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02227722772277228</v>
+        <v>0.02320185614849188</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.005</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="G12">
-        <v>0.735</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.18</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="K12">
-        <v>0.01</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="L12">
-        <v>0.005</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.065</v>
+        <v>0.06018518518518518</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.66</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.26</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01639344262295082</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1188524590163934</v>
+        <v>0.1227436823104693</v>
       </c>
       <c r="I15">
-        <v>0.06967213114754098</v>
+        <v>0.06137184115523465</v>
       </c>
       <c r="J15">
-        <v>0.3032786885245902</v>
+        <v>0.2924187725631769</v>
       </c>
       <c r="K15">
-        <v>0.05737704918032787</v>
+        <v>0.05415162454873646</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01229508196721311</v>
+        <v>0.01083032490974729</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09016393442622951</v>
+        <v>0.08303249097472924</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3319672131147541</v>
+        <v>0.3610108303249098</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02808988764044944</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1797752808988764</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="I16">
-        <v>0.06179775280898876</v>
+        <v>0.06467661691542288</v>
       </c>
       <c r="J16">
-        <v>0.3539325842696629</v>
+        <v>0.3631840796019901</v>
       </c>
       <c r="K16">
-        <v>0.1573033707865168</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01123595505617977</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06179775280898876</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1460674157303371</v>
+        <v>0.154228855721393</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02644230769230769</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1923076923076923</v>
+        <v>0.1995515695067265</v>
       </c>
       <c r="I17">
-        <v>0.07692307692307693</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="J17">
-        <v>0.3629807692307692</v>
+        <v>0.3565022421524663</v>
       </c>
       <c r="K17">
-        <v>0.1201923076923077</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02163461538461538</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1370192307692308</v>
+        <v>0.1390134529147982</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02702702702702703</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2054054054054054</v>
+        <v>0.2171945701357466</v>
       </c>
       <c r="I18">
-        <v>0.06486486486486487</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="J18">
-        <v>0.3837837837837838</v>
+        <v>0.3619909502262443</v>
       </c>
       <c r="K18">
-        <v>0.1027027027027027</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01621621621621622</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04864864864864865</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1513513513513514</v>
+        <v>0.1583710407239819</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01923076923076923</v>
+        <v>0.02058640049906425</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2438186813186813</v>
+        <v>0.2432938240798503</v>
       </c>
       <c r="I19">
-        <v>0.0570054945054945</v>
+        <v>0.05801621958827199</v>
       </c>
       <c r="J19">
-        <v>0.3138736263736264</v>
+        <v>0.3162819713038054</v>
       </c>
       <c r="K19">
-        <v>0.1325549450549451</v>
+        <v>0.1291328758577667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02541208791208791</v>
+        <v>0.02432938240798503</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06043956043956044</v>
+        <v>0.06300686213349969</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1476648351648352</v>
+        <v>0.1453524641297567</v>
       </c>
     </row>
   </sheetData>
